--- a/团岛包/广告机变动资料/抽检信息查询-食药抽检（内付4份、4张图）.xlsx
+++ b/团岛包/广告机变动资料/抽检信息查询-食药抽检（内付4份、4张图）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17010" windowHeight="10350" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17010" windowHeight="10350" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="20170210" sheetId="7" r:id="rId1"/>
@@ -1008,19 +1008,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>八大峡食药局抽检结果公示20170302</t>
+    <t>八大峡食药局抽检结果公示20170505</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>八大峡食药局抽检结果公示20170303</t>
+    <t>八大峡食药局抽检结果公示20170503</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>八大峡食药局抽检结果公示20170306</t>
+    <t>八大峡食药局抽检结果公示20170509</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>八大峡食药局抽检结果公示20170308</t>
+    <t>八大峡食药局抽检结果公示20170507</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1099,7 +1099,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1137,13 +1137,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1171,12 +1208,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,6 +1221,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2329,10 +2381,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="F1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2342,444 +2394,448 @@
     <col min="4" max="4" width="11.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="6:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="6:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="6:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="6:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="H16" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="I16" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="J16" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="L16" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="M16" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="N16" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="6:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="10">
         <v>220</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="G17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="I17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="K17" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="L17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="M17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="10">
         <v>221</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="G18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="I18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="L18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="M18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="10">
         <v>222</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="G19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="I19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="K19" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="L19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="M19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="10">
         <v>223</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="G20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="I20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="K20" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="L20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="M20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="6:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="10">
         <v>224</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="G21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="I21" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="J21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="K21" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="L21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="M21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="6:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="10">
         <v>225</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="G22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="I22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="K22" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="L22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="M22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="6:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="10">
         <v>226</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="G23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="I23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="K23" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="L23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="M23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="10">
         <v>227</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="G24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="I24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="K24" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="L24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="M24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="10">
         <v>228</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="G25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="I25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="K25" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="L25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="M25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="6:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="10">
         <v>229</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="G26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="I26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="K26" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="L26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="M26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="6:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="10">
         <v>230</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="G27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="H27" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="I27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="K27" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="L27" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="M27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="6:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="10">
         <v>231</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="G28" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="H28" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="I28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="K28" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="L28" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="12" t="s">
+      <c r="M28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="10" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="N16:O16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4409,10 +4465,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="H1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="A1:J14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q28" sqref="H15:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4423,442 +4479,449 @@
     <col min="5" max="5" width="18.625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="8:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="8:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="I16" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="J16" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="L16" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="M16" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="N16" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="O16" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="P16" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="Q16" s="15"/>
+    </row>
+    <row r="17" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="10">
         <v>232</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="I17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="K17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="M17" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="N17" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="O17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="10">
         <v>233</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="I18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="K18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="M18" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="N18" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="O18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="10">
         <v>234</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="I19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="K19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="M19" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="N19" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="O19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="10">
         <v>235</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="I20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="K20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="M20" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="N20" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="O20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="10">
         <v>236</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="I21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="K21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="M21" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="N21" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="O21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="10">
         <v>237</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="I22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="K22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="M22" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="N22" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="O22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="10">
         <v>238</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="I23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="K23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="M23" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="N23" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="O23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="10">
         <v>239</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="I24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="K24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="M24" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="N24" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="O24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="10">
         <v>240</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="I25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="K25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="M25" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="N25" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="O25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="10">
         <v>241</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="I26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="K26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="M26" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="N26" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="O26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="10">
         <v>242</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="I27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="J27" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="K27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="M27" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="N27" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="O27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="10">
         <v>243</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="I28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="J28" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="K28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="M28" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="N28" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="12" t="s">
+      <c r="O28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="10" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="H15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4868,10 +4931,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="H1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4881,442 +4944,448 @@
     <col min="4" max="5" width="11.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="8:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="8:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="20"/>
+    </row>
+    <row r="16" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="I16" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="J16" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="L16" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="M16" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="N16" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="O16" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="P16" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="10">
         <v>244</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="I17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="K17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="M17" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="N17" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="O17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="10">
         <v>245</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="I18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="K18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="M18" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="N18" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="O18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="10">
         <v>246</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="I19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="K19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="M19" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="N19" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="O19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="10">
         <v>247</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="I20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="K20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="M20" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="N20" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="O20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="10">
         <v>248</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="I21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="K21" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="L21" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="M21" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="N21" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="O21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="10">
         <v>249</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="I22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="K22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="M22" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="N22" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="O22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="10">
         <v>250</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="I23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="K23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="M23" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="N23" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="O23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="10">
         <v>251</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="I24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="K24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="M24" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="N24" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="O24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="10">
         <v>252</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="I25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="K25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="M25" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="N25" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="O25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="10">
         <v>253</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="I26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="K26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="M26" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="N26" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="O26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="10">
         <v>254</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="I27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="J27" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="K27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="M27" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="N27" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="O27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="10">
         <v>255</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="I28" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="J28" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="K28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="M28" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="N28" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="12" t="s">
+      <c r="O28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="10" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="H15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5326,10 +5395,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="H1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="A1:J15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q30" sqref="H16:Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5338,477 +5407,484 @@
     <col min="3" max="3" width="6.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="10" max="10" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="8:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="8:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+    </row>
+    <row r="17" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="I17" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="J17" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="K17" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="L17" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="M17" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="N17" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="O17" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="P17" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="Q17" s="15"/>
+    </row>
+    <row r="18" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="10">
         <v>256</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="I18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="K18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="M18" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="N18" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="O18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="10">
         <v>257</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="I19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="K19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="M19" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="N19" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="O19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="10">
         <v>258</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="I20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="K20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="M20" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="N20" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="O20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="10">
         <v>259</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="I21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="K21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="M21" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="N21" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="O21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="10">
         <v>260</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="I22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="K22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="M22" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="N22" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="O22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="10">
         <v>261</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="I23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="K23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="M23" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="N23" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="O23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="10">
         <v>262</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="I24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="K24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="M24" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="N24" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="O24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="10">
         <v>263</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="I25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="K25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="M25" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="N25" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="O25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="10">
         <v>264</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="I26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="K26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="M26" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="N26" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="O26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="10">
         <v>265</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="I27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="K27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="M27" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="N27" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="O27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="10">
         <v>266</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="I28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="J28" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="K28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="M28" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="N28" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="O28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="10">
         <v>267</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="I29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="J29" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="K29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="M29" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="N29" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="O29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="8:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="10">
         <v>268</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="I30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="J30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="K30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="M30" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="N30" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="12" t="s">
+      <c r="O30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="10" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="H16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
